--- a/mysql/mysql常见问题.xlsx
+++ b/mysql/mysql常见问题.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E025E7-B926-4B8D-A4D0-9B7ED9EE8218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,6 +219,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -253,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,20 +463,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="88.875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="88.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="168" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
